--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1169880.299586989</v>
+        <v>1167320.115427124</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673445</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>208.2474868886328</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>227.9513547492338</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.05561470199449</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.071537063955</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>233.8447291789213</v>
+        <v>243.3503759364305</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.744187625746</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>23.9456372620864</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>286.5888679426066</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>246.5716134040408</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>56.60860467372817</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,22 +1370,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>204.3312742954269</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>190.9910030159803</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403511</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.3146636351001</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>2.044787904080508</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754677</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001811</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1854574632524</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.59740420111198</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>77.9361200972557</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>42.53134576113675</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>52.54490042790958</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>101.696957004696</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>35.63623515385353</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176126</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179031</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.9815576456775</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569543</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>21.63824106825009</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360222</v>
+        <v>1918.618935688523</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>1918.618935688523</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.37194081306</v>
+        <v>1560.353237081772</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148155</v>
+        <v>1174.564984483528</v>
       </c>
       <c r="F2" t="n">
-        <v>261.597783425208</v>
+        <v>763.5790796939207</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>347.8743294182095</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424344</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,28 +4404,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>491.3876008968052</v>
+        <v>393.5881086072301</v>
       </c>
       <c r="C4" t="n">
-        <v>322.4514179688983</v>
+        <v>224.6519256793232</v>
       </c>
       <c r="D4" t="n">
-        <v>322.4514179688983</v>
+        <v>74.53528626698744</v>
       </c>
       <c r="E4" t="n">
-        <v>322.4514179688983</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>175.561470470988</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>673.036065727045</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>673.036065727045</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X4" t="n">
-        <v>673.036065727045</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y4" t="n">
-        <v>673.036065727045</v>
+        <v>575.2365734374698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1452.155307492516</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>1083.192790552104</v>
       </c>
       <c r="D5" t="n">
-        <v>684.90618255198</v>
+        <v>1083.192790552104</v>
       </c>
       <c r="E5" t="n">
-        <v>299.1179299537358</v>
+        <v>1083.192790552104</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145198</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4756,19 +4756,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374698</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939397</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>863.4584982637875</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450455</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3403385450455</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3948377958421</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>340.730491560535</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1979.832243770793</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1979.832243770793</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1627.063588500679</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1253.597830239599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>863.4584982637875</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>837.079342274803</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624673</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800742</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904424</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>75.43429895394854</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1579.265711313156</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1898.596633253255</v>
+        <v>1788.749549056739</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.634116312843</v>
+        <v>1788.749549056739</v>
       </c>
       <c r="D11" t="n">
-        <v>1171.368417706093</v>
+        <v>1582.354322495702</v>
       </c>
       <c r="E11" t="n">
-        <v>785.5801651078486</v>
+        <v>1196.566069897458</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078486</v>
+        <v>785.58016510785</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>371.0047194374971</v>
       </c>
       <c r="H11" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I11" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386839</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420335</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176543</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687107</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985629</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882249</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.5533112346</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.5533112346</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.5533112346</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3732.633106167953</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="V11" t="n">
-        <v>3401.570218824382</v>
+        <v>3291.723134627867</v>
       </c>
       <c r="W11" t="n">
-        <v>3048.801563554268</v>
+        <v>2938.954479357752</v>
       </c>
       <c r="X11" t="n">
-        <v>2675.335805293188</v>
+        <v>2565.488721096673</v>
       </c>
       <c r="Y11" t="n">
-        <v>2285.196473317376</v>
+        <v>2175.349389120861</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>78.511066224692</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>78.511066224692</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520024</v>
+        <v>900.4499396649588</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282761</v>
+        <v>1413.763713908848</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279344</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145094</v>
+        <v>2428.043574125662</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>981.3767904364734</v>
+        <v>927.2232755143374</v>
       </c>
       <c r="C13" t="n">
-        <v>812.4406075085665</v>
+        <v>758.2870925864305</v>
       </c>
       <c r="D13" t="n">
-        <v>662.3239680962306</v>
+        <v>608.1704531740947</v>
       </c>
       <c r="E13" t="n">
-        <v>514.4108745138376</v>
+        <v>460.2573595917014</v>
       </c>
       <c r="F13" t="n">
-        <v>367.5209270159273</v>
+        <v>313.367412093791</v>
       </c>
       <c r="G13" t="n">
-        <v>200.0410294924699</v>
+        <v>313.367412093791</v>
       </c>
       <c r="H13" t="n">
-        <v>78.511066224692</v>
+        <v>169.132356598773</v>
       </c>
       <c r="I13" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600404</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.455047345771</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888928</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551108</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551108</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551108</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>2155.909043551108</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="V13" t="n">
-        <v>1901.224555345221</v>
+        <v>1665.422575592846</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.807385308261</v>
+        <v>1376.005405555885</v>
       </c>
       <c r="X13" t="n">
-        <v>1383.817834410243</v>
+        <v>1148.015854657868</v>
       </c>
       <c r="Y13" t="n">
-        <v>1163.025255266713</v>
+        <v>927.2232755143374</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200316</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5291,37 +5291,37 @@
         <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608048</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072594</v>
+        <v>733.6583989593863</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>733.6583989593863</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1078.984099646862</v>
+        <v>494.0589900220746</v>
       </c>
       <c r="C16" t="n">
-        <v>910.0479167189546</v>
+        <v>494.0589900220746</v>
       </c>
       <c r="D16" t="n">
-        <v>759.931277306619</v>
+        <v>343.9423506097387</v>
       </c>
       <c r="E16" t="n">
-        <v>612.0181837242258</v>
+        <v>196.0292570273457</v>
       </c>
       <c r="F16" t="n">
-        <v>465.1282362263155</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G16" t="n">
-        <v>297.9140414008943</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H16" t="n">
-        <v>156.0413244393249</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149097</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2025.526801863479</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1770.842313657592</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1481.425143620631</v>
+        <v>1124.489584893862</v>
       </c>
       <c r="X16" t="n">
-        <v>1481.425143620631</v>
+        <v>896.5000339958444</v>
       </c>
       <c r="Y16" t="n">
-        <v>1260.632564477101</v>
+        <v>675.7074548523143</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244852</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851667</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572598</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154064</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400701</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
         <v>261.0127623330919</v>
@@ -6148,28 +6148,28 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048569</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925213</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101283</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>149.898275412218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>984.5467179762951</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>815.6105350483882</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597622</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597622</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,13 +6859,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876684</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597615</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597615</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597615</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7096,13 +7096,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614382</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179081</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400708</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>430.7826650753336</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773689</v>
+        <v>282.8695714929406</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>282.8695714929406</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>115.6734722078204</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797744</v>
@@ -7582,16 +7582,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7606,13 +7606,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098238</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819169</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>516.3896878871881</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>280.1079373569282</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566511</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>150.3517673252561</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238004</v>
+        <v>22.60777203238041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114088</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>59.96480618773737</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>22.47804130496766</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703403</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146327</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>250.0928554197475</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728991</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.23559055967887</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>19.20717254329707</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>68.49784254931348</v>
+        <v>38.13892827624296</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>106.0841272570756</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>166.0397529241852</v>
       </c>
     </row>
     <row r="23">
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.54986409393187</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393013</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>35.40333084624558</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.9792378643588</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347513</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.63391537253487</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>125.5054897610397</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>142.4141550350971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>118.6564717779738</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872750.268598623</v>
+        <v>872750.2685986216</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949858.115289822</v>
+        <v>949858.1152898223</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955106.6382508926</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.638250893</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876641</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918676</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357084</v>
+        <v>325187.1190357054</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051357</v>
+        <v>166521.3471051391</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456872</v>
+        <v>84929.59434456796</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848847</v>
+        <v>43782.4065584894</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26451,7 +26451,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214726</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868704.401890546</v>
+        <v>-868704.4018905456</v>
       </c>
       <c r="C6" t="n">
-        <v>246047.3816853742</v>
+        <v>246047.381685374</v>
       </c>
       <c r="D6" t="n">
-        <v>246047.3816853739</v>
+        <v>246047.3816853738</v>
       </c>
       <c r="E6" t="n">
-        <v>5118.152885394869</v>
+        <v>4908.188641552359</v>
       </c>
       <c r="F6" t="n">
-        <v>187376.5572323992</v>
+        <v>187330.6522368303</v>
       </c>
       <c r="G6" t="n">
-        <v>344312.1603005475</v>
+        <v>344277.4223751121</v>
       </c>
       <c r="H6" t="n">
-        <v>355479.3965361269</v>
+        <v>355444.6586106914</v>
       </c>
       <c r="I6" t="n">
-        <v>355479.3965361268</v>
+        <v>355444.658610691</v>
       </c>
       <c r="J6" t="n">
-        <v>187874.2187261444</v>
+        <v>187839.4808007089</v>
       </c>
       <c r="K6" t="n">
-        <v>355479.3965361269</v>
+        <v>355444.6586106913</v>
       </c>
       <c r="L6" t="n">
-        <v>355479.3965361269</v>
+        <v>355444.6586106912</v>
       </c>
       <c r="M6" t="n">
-        <v>270549.8021915582</v>
+        <v>270515.0642661233</v>
       </c>
       <c r="N6" t="n">
-        <v>311696.9899776385</v>
+        <v>311662.2520522018</v>
       </c>
       <c r="O6" t="n">
-        <v>352456.0985589022</v>
+        <v>352421.3606334667</v>
       </c>
       <c r="P6" t="n">
-        <v>355479.3965361269</v>
+        <v>355444.6586106912</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086499</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770184</v>
+        <v>278.1053753770158</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218279</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086111</v>
+        <v>340.803495708608</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173561</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086111</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086111</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>178.7569625173599</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>203.3002158843212</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>73.06719781317153</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>123.3783479445747</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>43.23506298084916</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>173.0313165627901</v>
+        <v>163.525669805281</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.08779255619135</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27828,13 +27828,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>262.5773610745046</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>14.42968461979882</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>4.473636724421254</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>80.8509579418146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>164.1400913234838</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485655</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508997</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307184</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726063</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216981</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857436</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898398</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294417</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615145</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895593</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356985</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188523</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596489</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256423</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>638.7320230899716</v>
+        <v>660.6327957845324</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147148</v>
+        <v>678.1177801147134</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431816</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205476</v>
+        <v>266.1421801896214</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407185</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697592</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236087</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691798</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619744</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263713</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973098</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050063</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761899</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570622</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929616</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826915</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396509</v>
+        <v>302.8877650506832</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>117.9333660065825</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276258</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517108</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584709</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.955268607755</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706245</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151098</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156638</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457681</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>496.5979891679532</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313816</v>
+        <v>546.7760680313801</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987372</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062174</v>
+        <v>132.1677727752912</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211635</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701858</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882119</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765384</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410834</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.8756671399838</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977673</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
